--- a/Data/Elasticity Data.xlsx
+++ b/Data/Elasticity Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piyushkumar/Documents/GitHub/sales-revenue-tool/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEC2DA7-AD59-4843-8931-0DF6584F9853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6837173B-A7F4-3D48-B31A-29F388CE2DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{EA530036-D2D1-F143-9C5E-D2C4A5652CF5}"/>
+    <workbookView xWindow="4520" yWindow="500" windowWidth="28080" windowHeight="20500" xr2:uid="{EA530036-D2D1-F143-9C5E-D2C4A5652CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,12 +461,12 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -474,16 +474,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -491,16 +491,16 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11.4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -508,16 +508,16 @@
         <v>6</v>
       </c>
       <c r="B3">
+        <v>2.52</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.86</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3">
-        <v>2.52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -525,16 +525,16 @@
         <v>9</v>
       </c>
       <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="E4">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,16 +542,16 @@
         <v>7</v>
       </c>
       <c r="B5">
+        <v>461</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5">
-        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -559,16 +559,16 @@
         <v>11</v>
       </c>
       <c r="B6">
+        <v>0.97</v>
+      </c>
+      <c r="C6">
         <v>-0.75</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-8.07</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6">
-        <v>0.97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -576,16 +576,16 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <v>408</v>
+      </c>
+      <c r="C7">
         <v>-0.5</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
-      </c>
-      <c r="E7">
-        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -593,16 +593,16 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>796</v>
+      </c>
+      <c r="C8">
         <v>-0.25</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="E8">
-        <v>796</v>
       </c>
     </row>
   </sheetData>
